--- a/data/Negociado_de_Policia/npprDS_totales.xlsx
+++ b/data/Negociado_de_Policia/npprDS_totales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Negociado_de_Policia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A450DDF-A647-4424-9309-0E2E74A18CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1275910-9869-4AD0-81E8-9B494DFE98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="1428" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Victimas" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,6 +447,17 @@
       </c>
       <c r="C7">
         <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8">
+        <v>1263</v>
+      </c>
+      <c r="C8">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -457,10 +468,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +553,17 @@
         <v>1151</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+      <c r="C8">
+        <v>1381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
